--- a/sql/departments.xlsx
+++ b/sql/departments.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
